--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H2">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I2">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J2">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>76573.48759557659</v>
+        <v>47909.63639574021</v>
       </c>
       <c r="R2">
-        <v>306293.9503823064</v>
+        <v>191638.5455829608</v>
       </c>
       <c r="S2">
-        <v>0.1290528212877231</v>
+        <v>0.176795018070748</v>
       </c>
       <c r="T2">
-        <v>0.08521108456018002</v>
+        <v>0.1342600300535581</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H3">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I3">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J3">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>55257.92698636954</v>
+        <v>28230.18254750074</v>
       </c>
       <c r="R3">
-        <v>331547.5619182172</v>
+        <v>169381.0952850045</v>
       </c>
       <c r="S3">
-        <v>0.09312872640417576</v>
+        <v>0.1041743584192526</v>
       </c>
       <c r="T3">
-        <v>0.09223664815799354</v>
+        <v>0.1186666851091531</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H4">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I4">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J4">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>39330.50257246376</v>
+        <v>18448.53109746722</v>
       </c>
       <c r="R4">
-        <v>235983.0154347825</v>
+        <v>110691.1865848033</v>
       </c>
       <c r="S4">
-        <v>0.06628550532330341</v>
+        <v>0.06807833734771306</v>
       </c>
       <c r="T4">
-        <v>0.06565055776609657</v>
+        <v>0.07754912766808783</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H5">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I5">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J5">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>65095.64609779696</v>
+        <v>40893.70427768378</v>
       </c>
       <c r="R5">
-        <v>260382.5843911878</v>
+        <v>163574.8171107351</v>
       </c>
       <c r="S5">
-        <v>0.109708686991464</v>
+        <v>0.150904989698393</v>
       </c>
       <c r="T5">
-        <v>0.07243852641837036</v>
+        <v>0.114598865246477</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H6">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I6">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J6">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>56639.30434636053</v>
+        <v>14226.83405114296</v>
       </c>
       <c r="R6">
-        <v>339835.8260781632</v>
+        <v>85361.00430685775</v>
       </c>
       <c r="S6">
-        <v>0.09545682521706206</v>
+        <v>0.05249952978948072</v>
       </c>
       <c r="T6">
-        <v>0.09454244615794993</v>
+        <v>0.05980305772399693</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H7">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I7">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J7">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>37052.4033799524</v>
+        <v>20504.51239208939</v>
       </c>
       <c r="R7">
-        <v>222314.4202797144</v>
+        <v>123027.0743525363</v>
       </c>
       <c r="S7">
-        <v>0.06244611995379258</v>
+        <v>0.07566527136519112</v>
       </c>
       <c r="T7">
-        <v>0.06184794979384109</v>
+        <v>0.08619152608222196</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>138.029482</v>
       </c>
       <c r="I8">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J8">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>7572.171798696294</v>
+        <v>9273.54550859455</v>
       </c>
       <c r="R8">
-        <v>45433.03079217776</v>
+        <v>55641.2730515673</v>
       </c>
       <c r="S8">
-        <v>0.01276172947820049</v>
+        <v>0.03422102042748236</v>
       </c>
       <c r="T8">
-        <v>0.01263948512148335</v>
+        <v>0.03898171408782531</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>138.029482</v>
       </c>
       <c r="I9">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J9">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>5464.326224639364</v>
+        <v>5464.326224639365</v>
       </c>
       <c r="R9">
-        <v>49178.93602175428</v>
+        <v>49178.93602175429</v>
       </c>
       <c r="S9">
-        <v>0.009209280364120949</v>
+        <v>0.0201643286467412</v>
       </c>
       <c r="T9">
-        <v>0.01368159727183258</v>
+        <v>0.03445426601520719</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>138.029482</v>
       </c>
       <c r="I10">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J10">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>3889.300745718758</v>
+        <v>3570.957860876096</v>
       </c>
       <c r="R10">
-        <v>35003.70671146882</v>
+        <v>32138.62074788487</v>
       </c>
       <c r="S10">
-        <v>0.006554817467925356</v>
+        <v>0.01317746505793983</v>
       </c>
       <c r="T10">
-        <v>0.00973804349967668</v>
+        <v>0.02251599319106178</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>138.029482</v>
       </c>
       <c r="I11">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J11">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>6437.15509215133</v>
+        <v>7915.518800886301</v>
       </c>
       <c r="R11">
-        <v>38622.93055290798</v>
+        <v>47493.1128053178</v>
       </c>
       <c r="S11">
-        <v>0.0108488336080013</v>
+        <v>0.02920966207888955</v>
       </c>
       <c r="T11">
-        <v>0.01074491284335833</v>
+        <v>0.03327319529159451</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>138.029482</v>
       </c>
       <c r="I12">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J12">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>5600.927377559628</v>
+        <v>2753.792408832128</v>
       </c>
       <c r="R12">
-        <v>50408.34639803666</v>
+        <v>24784.13167948915</v>
       </c>
       <c r="S12">
-        <v>0.009439500571258728</v>
+        <v>0.01016198024675163</v>
       </c>
       <c r="T12">
-        <v>0.01402361967025672</v>
+        <v>0.01736351240830652</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>138.029482</v>
       </c>
       <c r="I13">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J13">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>3664.024883252179</v>
+        <v>3968.920307157427</v>
       </c>
       <c r="R13">
-        <v>32976.22394926962</v>
+        <v>35720.28276441684</v>
       </c>
       <c r="S13">
-        <v>0.006175149693448587</v>
+        <v>0.01464601675598701</v>
       </c>
       <c r="T13">
-        <v>0.009173997083224689</v>
+        <v>0.02502526943566309</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H14">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I14">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J14">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>72.24585590863916</v>
+        <v>85.559611986728</v>
       </c>
       <c r="R14">
-        <v>433.475135451835</v>
+        <v>513.357671920368</v>
       </c>
       <c r="S14">
-        <v>0.0001217592645198362</v>
+        <v>0.0003157300761452807</v>
       </c>
       <c r="T14">
-        <v>0.0001205929349098092</v>
+        <v>0.0003596532015549872</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H15">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I15">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J15">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>52.13496676489332</v>
+        <v>50.41498217868799</v>
       </c>
       <c r="R15">
-        <v>469.2147008840399</v>
+        <v>453.734839608192</v>
       </c>
       <c r="S15">
-        <v>8.786545787604723E-05</v>
+        <v>0.0001860401863978679</v>
       </c>
       <c r="T15">
-        <v>0.0001305356945640123</v>
+        <v>0.0003178820472511385</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H16">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I16">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J16">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>37.10769759726499</v>
+        <v>32.94638158774933</v>
       </c>
       <c r="R16">
-        <v>333.969278375385</v>
+        <v>296.517434289744</v>
       </c>
       <c r="S16">
-        <v>6.253930984195303E-05</v>
+        <v>0.0001215779656530601</v>
       </c>
       <c r="T16">
-        <v>9.291037052683215E-05</v>
+        <v>0.0002077371205153032</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H17">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I17">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J17">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>61.41669676976916</v>
+        <v>73.030182107784</v>
       </c>
       <c r="R17">
-        <v>368.500180618615</v>
+        <v>438.181092646704</v>
       </c>
       <c r="S17">
-        <v>0.0001035083844446594</v>
+        <v>0.0002694942674748348</v>
       </c>
       <c r="T17">
-        <v>0.0001025168796574061</v>
+        <v>0.0003069852491767093</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H18">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I18">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J18">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>53.43827412151332</v>
+        <v>25.40704736643733</v>
       </c>
       <c r="R18">
-        <v>480.9444670936199</v>
+        <v>228.663426297936</v>
       </c>
       <c r="S18">
-        <v>9.006198172076465E-05</v>
+        <v>9.375649109858454E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001337989196427581</v>
+        <v>0.000160199287640806</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H19">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I19">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J19">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>34.95834759146389</v>
+        <v>36.61806384321066</v>
       </c>
       <c r="R19">
-        <v>314.625128323175</v>
+        <v>329.5625745888959</v>
       </c>
       <c r="S19">
-        <v>5.891691139970891E-05</v>
+        <v>0.0001351271215126952</v>
       </c>
       <c r="T19">
-        <v>8.752882118905948E-05</v>
+        <v>0.0002308882121508194</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H20">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I20">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J20">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>12020.37550952699</v>
+        <v>18803.49570372918</v>
       </c>
       <c r="R20">
-        <v>48081.50203810795</v>
+        <v>75213.98281491673</v>
       </c>
       <c r="S20">
-        <v>0.02025849182468113</v>
+        <v>0.06938821942363171</v>
       </c>
       <c r="T20">
-        <v>0.01337629075218705</v>
+        <v>0.05269415692161455</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H21">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I21">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J21">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>8674.295152419787</v>
+        <v>11079.73585653466</v>
       </c>
       <c r="R21">
-        <v>52045.77091451873</v>
+        <v>66478.41513920797</v>
       </c>
       <c r="S21">
-        <v>0.01461918866768268</v>
+        <v>0.04088618174420808</v>
       </c>
       <c r="T21">
-        <v>0.01447915174577017</v>
+        <v>0.0465741064113803</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H22">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I22">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J22">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>6174.035227393009</v>
+        <v>7240.649299984725</v>
       </c>
       <c r="R22">
-        <v>37044.21136435806</v>
+        <v>43443.89579990835</v>
       </c>
       <c r="S22">
-        <v>0.01040538559550844</v>
+        <v>0.02671927445369982</v>
       </c>
       <c r="T22">
-        <v>0.01030571261069164</v>
+        <v>0.03043635474270659</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H23">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I23">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J23">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>10218.60352323819</v>
+        <v>16049.89414537422</v>
       </c>
       <c r="R23">
-        <v>40874.41409295275</v>
+        <v>64199.5765814969</v>
       </c>
       <c r="S23">
-        <v>0.01722188260850136</v>
+        <v>0.05922694344884077</v>
       </c>
       <c r="T23">
-        <v>0.01137127635487119</v>
+        <v>0.04497757512736967</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H24">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I24">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J24">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>8891.141414864414</v>
+        <v>5583.724550706885</v>
       </c>
       <c r="R24">
-        <v>53346.84848918649</v>
+        <v>33502.34730424131</v>
       </c>
       <c r="S24">
-        <v>0.01498464964945196</v>
+        <v>0.02060492955300482</v>
       </c>
       <c r="T24">
-        <v>0.01484111198395309</v>
+        <v>0.0234714062468449</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H25">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I25">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J25">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>5816.423100770757</v>
+        <v>8047.577474539039</v>
       </c>
       <c r="R25">
-        <v>34898.53860462454</v>
+        <v>48285.46484723423</v>
       </c>
       <c r="S25">
-        <v>0.009802685427128359</v>
+        <v>0.02969698190327692</v>
       </c>
       <c r="T25">
-        <v>0.009708785695419834</v>
+        <v>0.03382830913175171</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H26">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I26">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J26">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>41316.30224414976</v>
+        <v>150.4136027666965</v>
       </c>
       <c r="R26">
-        <v>247897.8134648985</v>
+        <v>902.4816166001789</v>
       </c>
       <c r="S26">
-        <v>0.0696322648635874</v>
+        <v>0.0005550527538879178</v>
       </c>
       <c r="T26">
-        <v>0.06896525876229466</v>
+        <v>0.0006322695081980263</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H27">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I27">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J27">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>29815.19171246273</v>
+        <v>88.62942370626398</v>
       </c>
       <c r="R27">
-        <v>268336.7254121646</v>
+        <v>797.6648133563758</v>
       </c>
       <c r="S27">
-        <v>0.05024891419402879</v>
+        <v>0.0003270582234504732</v>
       </c>
       <c r="T27">
-        <v>0.07465137124372866</v>
+        <v>0.0005588359141847658</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H28">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I28">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J28">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>21221.32584949797</v>
+        <v>57.91966370193966</v>
       </c>
       <c r="R28">
-        <v>190991.9326454818</v>
+        <v>521.276973317457</v>
       </c>
       <c r="S28">
-        <v>0.03576527670788767</v>
+        <v>0.0002137337863776092</v>
       </c>
       <c r="T28">
-        <v>0.05313402273421619</v>
+        <v>0.0003652013841522929</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H29">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I29">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J29">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>35123.27142730471</v>
+        <v>128.3868936110145</v>
       </c>
       <c r="R29">
-        <v>210739.6285638282</v>
+        <v>770.3213616660869</v>
       </c>
       <c r="S29">
-        <v>0.05919486512731319</v>
+        <v>0.0004737703076791598</v>
       </c>
       <c r="T29">
-        <v>0.05862783867366463</v>
+        <v>0.0005396793680184467</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H30">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I30">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J30">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>30560.53329622403</v>
+        <v>44.66553133320365</v>
       </c>
       <c r="R30">
-        <v>275044.7996660163</v>
+        <v>401.9897819988329</v>
       </c>
       <c r="S30">
-        <v>0.05150507265340935</v>
+        <v>0.0001648236975535765</v>
       </c>
       <c r="T30">
-        <v>0.07651755985688105</v>
+        <v>0.0002816299823618851</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H31">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I31">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J31">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>19992.14538853919</v>
+        <v>64.37447273431532</v>
       </c>
       <c r="R31">
-        <v>179929.3084968527</v>
+        <v>579.3702546088379</v>
       </c>
       <c r="S31">
-        <v>0.0336936823305194</v>
+        <v>0.0002375531714820127</v>
       </c>
       <c r="T31">
-        <v>0.05005639681111281</v>
+        <v>0.0004059009504549087</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H32">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I32">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J32">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>148.0293002466759</v>
+        <v>52.30734655584899</v>
       </c>
       <c r="R32">
-        <v>888.175801480055</v>
+        <v>313.844079335094</v>
       </c>
       <c r="S32">
-        <v>0.0002494805895609294</v>
+        <v>0.0001930233450988253</v>
       </c>
       <c r="T32">
-        <v>0.0002470908198799168</v>
+        <v>0.000219875993086265</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H33">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I33">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J33">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>106.8227727601467</v>
+        <v>30.82148087390399</v>
       </c>
       <c r="R33">
-        <v>961.4049548413199</v>
+        <v>277.393327865136</v>
       </c>
       <c r="S33">
-        <v>0.0001800333331463751</v>
+        <v>0.0001137367068090203</v>
       </c>
       <c r="T33">
-        <v>0.0002674631960615183</v>
+        <v>0.0001943389646510708</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H34">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I34">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J34">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>76.032409610245</v>
+        <v>20.141954357378</v>
       </c>
       <c r="R34">
-        <v>684.291686492205</v>
+        <v>181.277589216402</v>
       </c>
       <c r="S34">
-        <v>0.0001281409176676018</v>
+        <v>7.432736819746443E-05</v>
       </c>
       <c r="T34">
-        <v>0.0001903701874905977</v>
+        <v>0.0001270012486381272</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H35">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I35">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J35">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>125.8407216849658</v>
+        <v>44.64740963459699</v>
       </c>
       <c r="R35">
-        <v>755.0443301097951</v>
+        <v>267.884457807582</v>
       </c>
       <c r="S35">
-        <v>0.0002120851573602106</v>
+        <v>0.0001647568252858311</v>
       </c>
       <c r="T35">
-        <v>0.0002100535977918121</v>
+        <v>0.0001876771463001801</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H36">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I36">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J36">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>109.4932051826067</v>
+        <v>15.532740281282</v>
       </c>
       <c r="R36">
-        <v>985.43884664346</v>
+        <v>139.794662531538</v>
       </c>
       <c r="S36">
-        <v>0.0001845339357569917</v>
+        <v>5.731855437253228E-05</v>
       </c>
       <c r="T36">
-        <v>0.0002741494332010576</v>
+        <v>9.793872905743913E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H37">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I37">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J37">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>71.62846459025279</v>
+        <v>22.386657807052</v>
       </c>
       <c r="R37">
-        <v>644.6561813122752</v>
+        <v>201.479920263468</v>
       </c>
       <c r="S37">
-        <v>0.0001207187465288428</v>
+        <v>8.261072029119625E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001793435760304074</v>
+        <v>0.0001411547977859776</v>
       </c>
     </row>
   </sheetData>
